--- a/Data/Processed/Angiosperms/missing_powo_ipni/Meliaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Meliaceae.xlsx
@@ -6809,7 +6809,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -8800,7 +8800,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -16126,7 +16126,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 13: 501. 1937 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 13: 501. 1937</t>
         </is>
       </c>
       <c r="J284" t="b">
@@ -16204,7 +16204,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -16214,7 +16214,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 13: 502. 1937 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 13: 502. 1937</t>
         </is>
       </c>
       <c r="J285" t="b">
@@ -16282,7 +16282,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -16292,7 +16292,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 1: 365. 1901 </t>
+          <t>Bull. Herb. Boissier ser. 2, 1: 365. 1901</t>
         </is>
       </c>
       <c r="J286" t="b">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -16370,7 +16370,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 30(1, Beibl. 67): 34. 1901 [12 Mar 1901] </t>
+          <t>Bot. Jahrb. Syst. 30(1, Beibl. 67): 34. 1901 [12 Mar 1901]</t>
         </is>
       </c>
       <c r="J287" t="b">
@@ -16438,7 +16438,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier ser. 2, 1: 365. 1901 </t>
+          <t>Bull. Herb. Boissier ser. 2, 1: 365. 1901</t>
         </is>
       </c>
       <c r="J288" t="b">
@@ -16516,7 +16516,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -16526,7 +16526,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annuaire Conserv. Jard. Bot. Genève 10: 134. 1907 </t>
+          <t>Annuaire Conserv. Jard. Bot. Genève 10: 134. 1907</t>
         </is>
       </c>
       <c r="J289" t="b">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -16604,7 +16604,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Herb. Boissier 2: 570. 1894 </t>
+          <t>Bull. Herb. Boissier 2: 570. 1894</t>
         </is>
       </c>
       <c r="J290" t="b">
@@ -16672,7 +16672,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -16682,7 +16682,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Paraense Hist. Nat. Ethnogr. 3: 239. 1901 </t>
+          <t>Bol. Mus. Paraense Hist. Nat. Ethnogr. 3: 239. 1901</t>
         </is>
       </c>
       <c r="J291" t="b">
@@ -16750,7 +16750,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -16760,7 +16760,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annuaire Conserv. Jard. Bot. Genève 10: 145. 1907 </t>
+          <t>Annuaire Conserv. Jard. Bot. Genève 10: 145. 1907</t>
         </is>
       </c>
       <c r="J292" t="b">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Annuaire Conserv. Jard. Bot. Genève 10: 146. 1907 </t>
+          <t>Annuaire Conserv. Jard. Bot. Genève 10: 146. 1907</t>
         </is>
       </c>
       <c r="J293" t="b">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -16916,7 +16916,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contr. U.S. Natl. Herb. 20: 241. 1919 </t>
+          <t>Contr. U.S. Natl. Herb. 20: 241. 1919</t>
         </is>
       </c>
       <c r="J294" t="b">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Königl. Bot. Gart. Berlin 6: 501. 1917 </t>
+          <t>Notizbl. Königl. Bot. Gart. Berlin 6: 501. 1917</t>
         </is>
       </c>
       <c r="J295" t="b">
@@ -17062,7 +17062,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -17072,7 +17072,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Königl. Bot. Gart. Berlin 6: 501. 1917 </t>
+          <t>Notizbl. Königl. Bot. Gart. Berlin 6: 501. 1917</t>
         </is>
       </c>
       <c r="J296" t="b">
